--- a/FileUploaderBackend/FileUploaderBackend/FakeData/ExcelTestData_short.xlsx
+++ b/FileUploaderBackend/FileUploaderBackend/FakeData/ExcelTestData_short.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilzen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niil02\Documents\git\ap\ap-fileuploader-be\FileUploaderBackend\FileUploaderBackend\FakeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53378FB1-B9D0-401B-A370-8C3EFC7A15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="13650" xr2:uid="{68DC43CC-6929-49EB-BF29-8DD3B3AA683E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="22872" windowHeight="13656"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>ExcelSource</t>
   </si>
@@ -108,9 +107,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -124,22 +120,77 @@
   </si>
   <si>
     <t>ExcelUnit</t>
+  </si>
+  <si>
+    <t>SourceD</t>
+  </si>
+  <si>
+    <t>SourceE</t>
+  </si>
+  <si>
+    <t>SourceF</t>
+  </si>
+  <si>
+    <t>SourceG</t>
+  </si>
+  <si>
+    <t>SourceH</t>
+  </si>
+  <si>
+    <t>HostD</t>
+  </si>
+  <si>
+    <t>HostF</t>
+  </si>
+  <si>
+    <t>HostG</t>
+  </si>
+  <si>
+    <t>HostH</t>
+  </si>
+  <si>
+    <t>ContainerF</t>
+  </si>
+  <si>
+    <t>ContainerH</t>
+  </si>
+  <si>
+    <t>ItemD</t>
+  </si>
+  <si>
+    <t>ItemF</t>
+  </si>
+  <si>
+    <t>ItemG</t>
+  </si>
+  <si>
+    <t>TypeD</t>
+  </si>
+  <si>
+    <t>TypeF</t>
+  </si>
+  <si>
+    <t>TypeG</t>
+  </si>
+  <si>
+    <t>TypeH</t>
+  </si>
+  <si>
+    <t>grad</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -155,7 +206,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,17 +263,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,65 +588,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302CEAF2-84AA-4366-AC37-94B465403ACC}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.265625" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" customWidth="1"/>
-    <col min="4" max="4" width="9.265625" customWidth="1"/>
-    <col min="6" max="7" width="14.265625" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="6" max="7" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -601,21 +657,21 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="1">
         <v>100</v>
       </c>
@@ -623,40 +679,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
         <v>24</v>
       </c>
-      <c r="H3" s="1">
-        <v>200</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -666,31 +722,182 @@
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1">
-        <v>300</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="1">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
       <c r="L4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="1">
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
